--- a/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{059DF7F6-939C-475B-94FA-BD75DAB10A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4190AD64-C539-4562-BD71-C70A3FBFE10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4E2027F-4617-4B1C-9AD4-DAFA9E0779C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EB14F2B-AC07-4F49-AE80-6774F389EBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="255">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -455,349 +455,355 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C7B5FC-881A-4573-9C82-5B6FD922E46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5A0B05-044A-4A96-B4C1-DC98CCFAD2DE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F1F58-B6FB-445F-A6EA-D024C3271190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52366515-D7ED-4E34-BB80-9486287E9CEE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3647,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389B8D6-6353-4554-95F5-26978507056B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D21C6-0E7B-40CA-AED0-498B25D8213C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4866,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F900715F-28F5-40A9-934A-BD1A20DB7953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1B73D-6379-4E30-87A2-CED4C2DFA7F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5533,7 +5539,7 @@
         <v>1698</v>
       </c>
       <c r="N14" s="7">
-        <v>1391061</v>
+        <v>1391060</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>200</v>
@@ -5584,7 +5590,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5771,7 +5777,7 @@
         <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -5780,13 +5786,13 @@
         <v>209197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -5798,10 +5804,10 @@
         <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,16 +5819,16 @@
         <v>1005</v>
       </c>
       <c r="D20" s="7">
-        <v>682006</v>
+        <v>682007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>1521</v>
@@ -5831,13 +5837,13 @@
         <v>815783</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>2526</v>
@@ -5849,10 +5855,10 @@
         <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5870,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5920,13 +5926,13 @@
         <v>47594</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>488</v>
@@ -5935,13 +5941,13 @@
         <v>419554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>539</v>
@@ -5950,13 +5956,13 @@
         <v>467148</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,28 +5977,28 @@
         <v>3336564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>4870</v>
       </c>
       <c r="I23" s="7">
-        <v>3382553</v>
+        <v>3382552</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>8194</v>
@@ -6001,13 +6007,13 @@
         <v>6719116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,7 +6040,7 @@
         <v>5358</v>
       </c>
       <c r="I24" s="7">
-        <v>3802107</v>
+        <v>3802106</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4190AD64-C539-4562-BD71-C70A3FBFE10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1A6E9D-DEFC-4DE6-A402-F9FE23608032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EB14F2B-AC07-4F49-AE80-6774F389EBD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B28204FD-FDDE-447C-BEA4-FDAFDF6E6445}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -350,7 +350,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5A0B05-044A-4A96-B4C1-DC98CCFAD2DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625E9191-914B-4740-AB2F-05C190FC1438}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2434,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52366515-D7ED-4E34-BB80-9486287E9CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B80F28-C0CD-4402-97F8-0929EDDA034F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3653,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D21C6-0E7B-40CA-AED0-498B25D8213C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99662866-960E-40ED-8599-B4B5B3C10E38}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,7 +4290,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4341,7 +4341,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4872,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1B73D-6379-4E30-87A2-CED4C2DFA7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E46765-06E3-4C7B-9896-FA7B3F2C14E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB1A6E9D-DEFC-4DE6-A402-F9FE23608032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F232BF55-AAC6-46AB-9A91-50B86E064CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B28204FD-FDDE-447C-BEA4-FDAFDF6E6445}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFE91013-747C-450C-A3EF-AADE01BC170C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="253">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -455,49 +455,49 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -506,19 +506,19 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>98,15%</t>
@@ -527,19 +527,19 @@
     <t>96,75%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>0,76%</t>
@@ -548,16 +548,16 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -566,13 +566,13 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -581,16 +581,16 @@
     <t>93,79%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>95,52%</t>
+    <t>95,49%</t>
   </si>
   <si>
     <t>97,32%</t>
@@ -599,118 +599,115 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>20,41%</t>
@@ -719,43 +716,40 @@
     <t>10,36%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>55,77%</t>
+    <t>56,67%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -764,19 +758,19 @@
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>98,59%</t>
@@ -785,25 +779,25 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625E9191-914B-4740-AB2F-05C190FC1438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCFD4A0-BC72-4DA3-86F6-35AC0910A1BB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2434,7 +2428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B80F28-C0CD-4402-97F8-0929EDDA034F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B36AE18-E1F7-4724-914C-EB23CC6B65FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3653,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99662866-960E-40ED-8599-B4B5B3C10E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A88C573-01E3-4735-8A03-29A47F588EAE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,7 +4284,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4341,7 +4335,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4872,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E46765-06E3-4C7B-9896-FA7B3F2C14E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472F0E46-0FEA-44D3-9C2E-4784088F6F49}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5539,7 +5533,7 @@
         <v>1698</v>
       </c>
       <c r="N14" s="7">
-        <v>1391060</v>
+        <v>1391061</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>200</v>
@@ -5590,7 +5584,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5777,7 +5771,7 @@
         <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -5786,13 +5780,13 @@
         <v>209197</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -5804,10 +5798,10 @@
         <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,16 +5813,16 @@
         <v>1005</v>
       </c>
       <c r="D20" s="7">
-        <v>682007</v>
+        <v>682006</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>1521</v>
@@ -5837,13 +5831,13 @@
         <v>815783</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>2526</v>
@@ -5855,10 +5849,10 @@
         <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5864,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5926,13 +5920,13 @@
         <v>47594</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>488</v>
@@ -5941,13 +5935,13 @@
         <v>419554</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>539</v>
@@ -5956,13 +5950,13 @@
         <v>467148</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,28 +5971,28 @@
         <v>3336564</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>4870</v>
       </c>
       <c r="I23" s="7">
-        <v>3382552</v>
+        <v>3382553</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>8194</v>
@@ -6007,13 +6001,13 @@
         <v>6719116</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6034,7 @@
         <v>5358</v>
       </c>
       <c r="I24" s="7">
-        <v>3802106</v>
+        <v>3802107</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A20_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F232BF55-AAC6-46AB-9A91-50B86E064CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4792C7CB-0DE3-48D5-9E8E-CE1ABB6605FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFE91013-747C-450C-A3EF-AADE01BC170C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F08784D-4944-40E9-BCDD-8C2509716B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="290">
   <si>
     <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -128,7 +128,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -149,7 +149,7 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -170,7 +170,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -191,25 +191,46 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -320,484 +341,574 @@
     <t>98,83%</t>
   </si>
   <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicamentos para la alteración del tiroides en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCFD4A0-BC72-4DA3-86F6-35AC0910A1BB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFEF71C-7D64-4982-8250-0E0CB5E58120}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2153,10 +2264,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2168,10 +2279,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2183,10 +2294,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2204,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2219,10 +2330,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2234,10 +2345,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2251,7 +2362,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2269,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2284,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2299,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,46 +2419,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347384</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2359,63 +2470,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22313</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22299</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44612</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1878</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1947662</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1364</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1399722</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>3242</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>3347384</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1947662</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2428,8 +2695,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B36AE18-E1F7-4724-914C-EB23CC6B65FF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA7E375-6AE1-4EAF-9F42-3F41BB58E98D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2445,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2558,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2573,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2588,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2621,7 +2888,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2636,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2713,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2728,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2743,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2776,7 +3043,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2791,7 +3058,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2868,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2883,7 +3150,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2898,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2931,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2946,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3023,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3038,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3053,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3338,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3086,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3101,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3178,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3193,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3208,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3493,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3241,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3333,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3348,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3363,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,46 +3639,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3423,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3438,10 +3705,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3453,10 +3720,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3470,7 +3737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3488,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3503,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3518,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,46 +3794,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1618</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>1696771</v>
+        <v>16327</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1058638</v>
+        <v>12159</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2602</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>2755408</v>
+        <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3578,63 +3845,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16327</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12159</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>25</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28486</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1618</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1696771</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>984</v>
       </c>
-      <c r="I24" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2602</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2755408</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1618</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1696771</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>984</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2602</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2755408</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3647,8 +4070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A88C573-01E3-4735-8A03-29A47F588EAE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465613D0-89B9-433E-B2F9-770AFFB67365}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3664,7 +4087,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3777,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3792,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3807,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +4248,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3840,7 +4263,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3855,7 +4278,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3932,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3962,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +4403,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4010,7 +4433,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4087,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4102,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4117,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4558,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4150,7 +4573,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4165,7 +4588,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4242,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4257,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4272,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4713,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4305,7 +4728,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4320,7 +4743,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4397,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4412,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4427,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4868,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4460,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4475,7 +4898,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4552,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4567,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4582,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,46 +5014,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4642,10 +5065,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4657,10 +5080,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4672,10 +5095,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N21" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4689,7 +5112,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4707,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4722,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4737,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,46 +5169,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704362</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245925</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4797,63 +5220,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23025</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42271</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1610</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1704362</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1227</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1245925</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2837</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2950287</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1704362</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1245925</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4866,8 +5445,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472F0E46-0FEA-44D3-9C2E-4784088F6F49}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8106ED0-3BD2-46D9-8D9F-1E152AD29DAA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4883,7 +5462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4987,46 +5566,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5610</v>
+        <v>5649</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>11362</v>
+        <v>10815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>16972</v>
+        <v>16464</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5617,13 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>372069</v>
+        <v>394338</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5053,31 +5632,31 @@
         <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>343595</v>
+        <v>302385</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>715664</v>
+        <v>696723</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,7 +5668,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5104,7 +5683,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5119,7 +5698,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5142,46 +5721,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>16197</v>
+        <v>14880</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>17748</v>
+        <v>16242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5772,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>426846</v>
+        <v>422186</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5208,31 +5787,31 @@
         <v>443</v>
       </c>
       <c r="I8" s="7">
-        <v>482380</v>
+        <v>496624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
       </c>
       <c r="N8" s="7">
-        <v>909225</v>
+        <v>918809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,7 +5823,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5259,7 +5838,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5274,7 +5853,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5297,46 +5876,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4239</v>
+        <v>4301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>36209</v>
+        <v>33260</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>40448</v>
+        <v>37561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,46 +5927,46 @@
         <v>542</v>
       </c>
       <c r="D11" s="7">
-        <v>553013</v>
+        <v>532037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>794</v>
       </c>
       <c r="I11" s="7">
-        <v>547267</v>
+        <v>509208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1336</v>
       </c>
       <c r="N11" s="7">
-        <v>1100279</v>
+        <v>1041245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5978,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5414,7 +5993,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5429,7 +6008,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5452,46 +6031,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>11044</v>
+        <v>10915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>69147</v>
+        <v>62628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
       </c>
       <c r="N13" s="7">
-        <v>80191</v>
+        <v>73543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,46 +6082,46 @@
         <v>655</v>
       </c>
       <c r="D14" s="7">
-        <v>712946</v>
+        <v>876871</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>1043</v>
       </c>
       <c r="I14" s="7">
-        <v>678114</v>
+        <v>650253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>1698</v>
       </c>
       <c r="N14" s="7">
-        <v>1391061</v>
+        <v>1527124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +6133,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5569,7 +6148,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5584,7 +6163,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5607,46 +6186,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>9403</v>
+        <v>8251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
       </c>
       <c r="I16" s="7">
-        <v>77442</v>
+        <v>70705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
       </c>
       <c r="N16" s="7">
-        <v>86845</v>
+        <v>78957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,46 +6237,46 @@
         <v>651</v>
       </c>
       <c r="D17" s="7">
-        <v>589683</v>
+        <v>551986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
       </c>
       <c r="I17" s="7">
-        <v>515414</v>
+        <v>473535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>1520</v>
       </c>
       <c r="N17" s="7">
-        <v>1105097</v>
+        <v>1025520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +6288,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5724,7 +6303,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>592856</v>
+        <v>544240</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5739,7 +6318,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1191942</v>
+        <v>1104477</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5759,49 +6338,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>15748</v>
+        <v>8638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7">
-        <v>209197</v>
+        <v>252918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>224945</v>
+        <v>261556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,49 +6389,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1005</v>
+        <v>557</v>
       </c>
       <c r="D20" s="7">
-        <v>682006</v>
+        <v>359527</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
-        <v>1521</v>
+        <v>725</v>
       </c>
       <c r="I20" s="7">
-        <v>815783</v>
+        <v>355092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
-        <v>2526</v>
+        <v>1282</v>
       </c>
       <c r="N20" s="7">
-        <v>1497790</v>
+        <v>714620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5876,10 +6455,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024980</v>
+        <v>608010</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5891,10 +6470,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1722735</v>
+        <v>976176</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5908,55 +6487,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>47594</v>
+        <v>6007</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>419554</v>
+        <v>41047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
-        <v>539</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>467148</v>
+        <v>47054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,49 +6544,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3324</v>
+        <v>448</v>
       </c>
       <c r="D23" s="7">
-        <v>3336564</v>
+        <v>276752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
-        <v>4870</v>
+        <v>796</v>
       </c>
       <c r="I23" s="7">
-        <v>3382553</v>
+        <v>383678</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
-        <v>8194</v>
+        <v>1244</v>
       </c>
       <c r="N23" s="7">
-        <v>6719116</v>
+        <v>660430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,63 +6595,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45124</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="7">
+        <v>488</v>
+      </c>
+      <c r="I25" s="7">
+        <v>486253</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M25" s="7">
+        <v>539</v>
+      </c>
+      <c r="N25" s="7">
+        <v>531377</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3324</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3413696</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4870</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3170775</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8194</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6584471</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802107</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657028</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186264</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="N27" s="7">
+        <v>7115848</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
